--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\project_instruction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5D7D30-7909-48CE-B287-DC9B04C7E11D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12470" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>ACV-EUREKA</t>
   </si>
@@ -249,19 +255,25 @@
   </si>
   <si>
     <t>1.Breathe light 支持</t>
+  </si>
+  <si>
+    <t>ACV-NA推送消息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成信鸽SDK，完成推送</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>liyang</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,136 +333,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,19 +360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,164 +388,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -833,30 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -871,226 +580,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="26" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="26" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="27" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="35" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1120,84 +650,60 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="35" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="35" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="35" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="35" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="6">
+    <cellStyle name="20% - 着色 1" xfId="5" builtinId="30"/>
+    <cellStyle name="20% - 着色 6" xfId="3" builtinId="50"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
+    <cellStyle name="输入" xfId="1" builtinId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1455,43 +961,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="34.9166666666667" customWidth="1"/>
-    <col min="3" max="3" width="34.25" customWidth="1"/>
-    <col min="4" max="4" width="36.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="36.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="2:5">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.5" customHeight="1" spans="1:3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1501,56 +1007,55 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="9.5" customWidth="1"/>
+    <col min="4" max="5" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1560,10 +1065,10 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="40">
         <v>43435</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="40">
         <v>43439</v>
       </c>
       <c r="F2" t="s">
@@ -1571,143 +1076,141 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Y23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="47.5833333333333" customWidth="1"/>
-    <col min="4" max="5" width="8.08333333333333" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="47.5546875" customWidth="1"/>
+    <col min="4" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="11" width="7.75" customWidth="1"/>
-    <col min="12" max="15" width="7.41666666666667" customWidth="1"/>
-    <col min="16" max="16" width="7.75" customWidth="1"/>
-    <col min="17" max="17" width="8.16666666666667" customWidth="1"/>
-    <col min="18" max="18" width="7.58333333333333" customWidth="1"/>
-    <col min="19" max="19" width="7.75" customWidth="1"/>
-    <col min="20" max="23" width="7.91666666666667" customWidth="1"/>
+    <col min="8" max="11" width="7.77734375" customWidth="1"/>
+    <col min="12" max="15" width="7.44140625" customWidth="1"/>
+    <col min="16" max="16" width="7.77734375" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" customWidth="1"/>
+    <col min="19" max="19" width="7.77734375" customWidth="1"/>
+    <col min="20" max="23" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75" spans="5:23">
-      <c r="E1" s="2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E1" s="41">
         <v>2018</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42">
         <v>2019</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="37"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
     </row>
-    <row r="2" ht="15.5" spans="1:23">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" ht="17.5" customHeight="1" spans="1:23">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:25" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
@@ -1716,29 +1219,29 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="1:23">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:25" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C4" t="s">
@@ -1747,530 +1250,562 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
     </row>
-    <row r="5" ht="28" customHeight="1" spans="1:23">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:25" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
     </row>
-    <row r="6" ht="28" customHeight="1" spans="1:23">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="1:25" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
     </row>
-    <row r="7" ht="20.5" customHeight="1" spans="1:23">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="1:25" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:23">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
     </row>
-    <row r="9" ht="19" customHeight="1" spans="1:23">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
+    <row r="9" spans="1:25" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16" customHeight="1" spans="1:23">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="1:25" s="1" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
     </row>
-    <row r="11" ht="29.5" spans="1:23">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
     </row>
-    <row r="12" ht="15.5" spans="1:25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
     </row>
-    <row r="13" ht="15.5" spans="1:10">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="J13" s="35"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="J13" s="33"/>
     </row>
-    <row r="14" ht="15.5" spans="1:10">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="J14" s="35"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="J14" s="33"/>
     </row>
-    <row r="15" ht="15.5" spans="1:10">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="20" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="J15" s="35"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="J15" s="33"/>
     </row>
-    <row r="16" ht="15.5" spans="1:10">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="20" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="J16" s="35"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="J16" s="33"/>
     </row>
-    <row r="17" ht="15.5" spans="1:10">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="20" t="s">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="J17" s="35"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="J17" s="33"/>
     </row>
-    <row r="18" ht="15.5" spans="1:10">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="20" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
-      <c r="J18" s="35"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="J18" s="33"/>
     </row>
-    <row r="19" ht="28.75" spans="1:23">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
     </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="20" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
     </row>
-    <row r="21" ht="14.75" spans="1:23">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
     </row>
-    <row r="22" ht="14.75" spans="1:23">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="39"/>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
-        <v>74</v>
+      <c r="C23" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="40"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="36"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:W1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E4">
     <cfRule type="dataBar" priority="37">
       <dataBar>
@@ -2280,7 +1815,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6b2ef92e-b90c-44e9-af4e-eb1fcfff11b2}</x14:id>
+          <x14:id>{6B2EF92E-B90C-44E9-AF4E-EB1FCFFF11B2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2304,7 +1839,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f1bce7e-3796-4e1a-9ada-1a2efcc1e224}</x14:id>
+          <x14:id>{5F1BCE7E-3796-4E1A-9ADA-1A2EFCC1E224}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2328,7 +1863,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{732d20f8-1a00-449e-80b3-6bb212aa1f6e}</x14:id>
+          <x14:id>{732D20F8-1A00-449E-80B3-6BB212AA1F6E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2352,7 +1887,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21db59c8-6b65-4f06-93e6-a3a19bca8f75}</x14:id>
+          <x14:id>{21DB59C8-6B65-4F06-93E6-A3A19BCA8F75}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2376,7 +1911,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{258ddbf2-cfed-48d7-a1c3-c4262c202c4f}</x14:id>
+          <x14:id>{258DDBF2-CFED-48D7-A1C3-C4262C202C4F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2400,7 +1935,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bde95b38-7b7c-4025-b3f5-5d29ba951b49}</x14:id>
+          <x14:id>{BDE95B38-7B7C-4025-B3F5-5D29BA951B49}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2424,7 +1959,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{60722750-7a58-430d-aea9-658c935d7f40}</x14:id>
+          <x14:id>{60722750-7A58-430D-AEA9-658C935D7F40}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2448,7 +1983,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dbae8554-c6a7-4343-8095-2bf943145964}</x14:id>
+          <x14:id>{DBAE8554-C6A7-4343-8095-2BF943145964}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2472,7 +2007,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4c1540b8-c27c-4f3b-be7e-f5827d2f019e}</x14:id>
+          <x14:id>{4C1540B8-C27C-4F3B-BE7E-F5827D2F019E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2496,7 +2031,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{418bb6e2-3e8a-4f49-8204-aed9f52174bb}</x14:id>
+          <x14:id>{418BB6E2-3E8A-4F49-8204-AED9F52174BB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2520,7 +2055,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6f488789-18de-4604-a407-05781f2fd826}</x14:id>
+          <x14:id>{6F488789-18DE-4604-A407-05781F2FD826}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2544,7 +2079,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{532106dc-26e9-48ce-bd0a-c31c633c65b5}</x14:id>
+          <x14:id>{532106DC-26E9-48CE-BD0A-C31C633C65B5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2568,7 +2103,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{62058cb8-ee94-405f-b29f-88a1137b3bf9}</x14:id>
+          <x14:id>{62058CB8-EE94-405F-B29F-88A1137B3BF9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2592,7 +2127,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{113b716b-fc0f-42cf-a926-796bde785bdd}</x14:id>
+          <x14:id>{113B716B-FC0F-42CF-A926-796BDE785BDD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2616,7 +2151,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85f5fb1e-355f-43af-a644-b5aa30422dff}</x14:id>
+          <x14:id>{85F5FB1E-355F-43AF-A644-B5AA30422DFF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2640,7 +2175,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b3b40d44-53fa-4527-b397-b57c95e8e975}</x14:id>
+          <x14:id>{B3B40D44-53FA-4527-B397-B57C95E8E975}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2664,7 +2199,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fdbcf218-dcfb-43e7-b62b-0ec7b6e2d692}</x14:id>
+          <x14:id>{FDBCF218-DCFB-43E7-B62B-0EC7B6E2D692}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2688,7 +2223,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c6794670-cfc0-4575-b69c-0c4ffeb33263}</x14:id>
+          <x14:id>{C6794670-CFC0-4575-B69C-0C4FFEB33263}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2712,7 +2247,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e7cbde7-a730-4ee2-acb5-befe4dfcf040}</x14:id>
+          <x14:id>{7E7CBDE7-A730-4EE2-ACB5-BEFE4DFCF040}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2736,7 +2271,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ece7210c-1aa2-4ed7-85cf-b8fcb49aa731}</x14:id>
+          <x14:id>{ECE7210C-1AA2-4ED7-85CF-B8FCB49AA731}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2760,7 +2295,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cdd3085d-e1c3-4281-9365-ce68e647ef2f}</x14:id>
+          <x14:id>{CDD3085D-E1C3-4281-9365-CE68E647EF2F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2784,7 +2319,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d1dd7dd0-c1b2-4eb3-908f-8ae3b6c7c87a}</x14:id>
+          <x14:id>{D1DD7DD0-C1B2-4EB3-908F-8AE3B6C7C87A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2808,7 +2343,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4ee87680-0d4b-4b39-b260-9bda26a8b5ad}</x14:id>
+          <x14:id>{4EE87680-0D4B-4B39-B260-9BDA26A8B5AD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2832,7 +2367,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51dac9c2-eb12-4332-9f1e-75893e896b0b}</x14:id>
+          <x14:id>{51DAC9C2-EB12-4332-9F1E-75893E896B0B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2856,7 +2391,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{188b6245-35e8-4b36-a0ae-fe2748702dfe}</x14:id>
+          <x14:id>{188B6245-35E8-4B36-A0AE-FE2748702DFE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2880,7 +2415,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dd591a0c-e01b-42ba-9aaa-a533d3dbe0ec}</x14:id>
+          <x14:id>{DD591A0C-E01B-42BA-9AAA-A533D3DBE0EC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2895,7 +2430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -2904,7 +2439,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e4b67c3-0af3-4840-bfdd-54d395e057ce}</x14:id>
+          <x14:id>{7E4B67C3-0AF3-4840-BFDD-54D395E057CE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2919,7 +2454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="F23">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -2928,7 +2463,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eba3cc67-80ae-4a89-a79e-7a2f7f8e12d2}</x14:id>
+          <x14:id>{EBA3CC67-80AE-4A89-A79E-7A2F7F8E12D2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2943,7 +2478,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G23">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -2952,7 +2487,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ba11858d-4720-483c-9038-e18be2fa34c8}</x14:id>
+          <x14:id>{BA11858D-4720-483C-9038-E18BE2FA34C8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2967,7 +2502,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:S22">
+  <conditionalFormatting sqref="H23:S23">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -2976,7 +2511,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c3b0186d-e724-402b-853b-7f70b9ce5e86}</x14:id>
+          <x14:id>{C3B0186D-E724-402B-853B-7F70B9CE5E86}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3000,7 +2535,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28ca8e5c-0edd-4963-b5b9-5ef76f53373c}</x14:id>
+          <x14:id>{28CA8E5C-0EDD-4963-B5B9-5EF76F53373C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3024,7 +2559,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b6510d2d-db98-430d-a2ee-f8920a94d58c}</x14:id>
+          <x14:id>{B6510D2D-DB98-430D-A2EE-F8920A94D58C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3039,7 +2574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E21">
+  <conditionalFormatting sqref="E19:E22">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -3048,7 +2583,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc7cb7a6-a688-4d53-8b88-0d249d9a20dc}</x14:id>
+          <x14:id>{CC7CB7A6-A688-4D53-8B88-0D249D9A20DC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3072,7 +2607,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7d03c53b-665e-48c7-9f9b-a8ffcc4ea118}</x14:id>
+          <x14:id>{7D03C53B-665E-48C7-9F9B-A8FFCC4EA118}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3096,7 +2631,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{13be9081-9bdc-48e0-bba7-eec00b57268b}</x14:id>
+          <x14:id>{13BE9081-9BDC-48E0-BBA7-EEC00B57268B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3120,7 +2655,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{693fd5a9-0239-4b16-950f-a101f8829fb7}</x14:id>
+          <x14:id>{693FD5A9-0239-4B16-950F-A101F8829FB7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3135,7 +2670,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:S18 F3:S3 C2:W2 C3:D21">
+  <conditionalFormatting sqref="F13:S18 F3:S3 C2:W2 C3:D22">
     <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="min"/>
@@ -3144,12 +2679,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01992685-6fc4-467c-a627-a3a6fe71d485}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:S18 F3:S3 C2:W2 C3:D22">
+          <x14:id>{01992685-6FC4-467C-A627-A3A6FE71D485}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:S18 F3:S3 C2:W2 C3:D23">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -3161,7 +2696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3 E13:E18">
+  <conditionalFormatting sqref="E13:E18 E3">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
@@ -3170,7 +2705,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15c30c50-4d89-4071-91be-9e703040dd0f}</x14:id>
+          <x14:id>{15C30C50-4D89-4071-91BE-9E703040DD0F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3194,7 +2729,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4e4b36a4-3f26-4433-9b95-eefb689bd695}</x14:id>
+          <x14:id>{4E4B36A4-3F26-4433-9B95-EEFB689BD695}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3209,7 +2744,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:S21">
+  <conditionalFormatting sqref="F19:S22">
     <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
@@ -3218,7 +2753,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{326ec3bb-e671-4e19-8899-e8ff6df4dc0c}</x14:id>
+          <x14:id>{326EC3BB-E671-4E19-8899-E8FF6DF4DC0C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3233,14 +2768,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6b2ef92e-b90c-44e9-af4e-eb1fcfff11b2}">
+          <x14:cfRule type="dataBar" id="{6B2EF92E-B90C-44E9-AF4E-EB1FCFFF11B2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3253,7 +2787,7 @@
           <xm:sqref>E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f1bce7e-3796-4e1a-9ada-1a2efcc1e224}">
+          <x14:cfRule type="dataBar" id="{5F1BCE7E-3796-4E1A-9ADA-1A2EFCC1E224}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3266,7 +2800,7 @@
           <xm:sqref>F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{732d20f8-1a00-449e-80b3-6bb212aa1f6e}">
+          <x14:cfRule type="dataBar" id="{732D20F8-1A00-449E-80B3-6BB212AA1F6E}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3279,7 +2813,7 @@
           <xm:sqref>G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21db59c8-6b65-4f06-93e6-a3a19bca8f75}">
+          <x14:cfRule type="dataBar" id="{21DB59C8-6B65-4F06-93E6-A3A19BCA8F75}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3292,7 +2826,7 @@
           <xm:sqref>H4:S4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{258ddbf2-cfed-48d7-a1c3-c4262c202c4f}">
+          <x14:cfRule type="dataBar" id="{258DDBF2-CFED-48D7-A1C3-C4262C202C4F}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3305,7 +2839,7 @@
           <xm:sqref>E5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bde95b38-7b7c-4025-b3f5-5d29ba951b49}">
+          <x14:cfRule type="dataBar" id="{BDE95B38-7B7C-4025-B3F5-5D29BA951B49}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3318,7 +2852,7 @@
           <xm:sqref>F5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{60722750-7a58-430d-aea9-658c935d7f40}">
+          <x14:cfRule type="dataBar" id="{60722750-7A58-430D-AEA9-658C935D7F40}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3331,7 +2865,7 @@
           <xm:sqref>G5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dbae8554-c6a7-4343-8095-2bf943145964}">
+          <x14:cfRule type="dataBar" id="{DBAE8554-C6A7-4343-8095-2BF943145964}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3344,7 +2878,7 @@
           <xm:sqref>H5:S5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4c1540b8-c27c-4f3b-be7e-f5827d2f019e}">
+          <x14:cfRule type="dataBar" id="{4C1540B8-C27C-4F3B-BE7E-F5827D2F019E}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3357,7 +2891,7 @@
           <xm:sqref>E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{418bb6e2-3e8a-4f49-8204-aed9f52174bb}">
+          <x14:cfRule type="dataBar" id="{418BB6E2-3E8A-4F49-8204-AED9F52174BB}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3370,7 +2904,7 @@
           <xm:sqref>F6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6f488789-18de-4604-a407-05781f2fd826}">
+          <x14:cfRule type="dataBar" id="{6F488789-18DE-4604-A407-05781F2FD826}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3383,7 +2917,7 @@
           <xm:sqref>G6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{532106dc-26e9-48ce-bd0a-c31c633c65b5}">
+          <x14:cfRule type="dataBar" id="{532106DC-26E9-48CE-BD0A-C31C633C65B5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3396,7 +2930,7 @@
           <xm:sqref>H6:S6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{62058cb8-ee94-405f-b29f-88a1137b3bf9}">
+          <x14:cfRule type="dataBar" id="{62058CB8-EE94-405F-B29F-88A1137B3BF9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3409,7 +2943,7 @@
           <xm:sqref>E7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{113b716b-fc0f-42cf-a926-796bde785bdd}">
+          <x14:cfRule type="dataBar" id="{113B716B-FC0F-42CF-A926-796BDE785BDD}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3422,7 +2956,7 @@
           <xm:sqref>F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85f5fb1e-355f-43af-a644-b5aa30422dff}">
+          <x14:cfRule type="dataBar" id="{85F5FB1E-355F-43AF-A644-B5AA30422DFF}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3435,7 +2969,7 @@
           <xm:sqref>G7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b3b40d44-53fa-4527-b397-b57c95e8e975}">
+          <x14:cfRule type="dataBar" id="{B3B40D44-53FA-4527-B397-B57C95E8E975}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3448,7 +2982,7 @@
           <xm:sqref>H7:S7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fdbcf218-dcfb-43e7-b62b-0ec7b6e2d692}">
+          <x14:cfRule type="dataBar" id="{FDBCF218-DCFB-43E7-B62B-0EC7B6E2D692}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3461,7 +2995,7 @@
           <xm:sqref>E10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c6794670-cfc0-4575-b69c-0c4ffeb33263}">
+          <x14:cfRule type="dataBar" id="{C6794670-CFC0-4575-B69C-0C4FFEB33263}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3474,7 +3008,7 @@
           <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e7cbde7-a730-4ee2-acb5-befe4dfcf040}">
+          <x14:cfRule type="dataBar" id="{7E7CBDE7-A730-4EE2-ACB5-BEFE4DFCF040}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3487,7 +3021,7 @@
           <xm:sqref>G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ece7210c-1aa2-4ed7-85cf-b8fcb49aa731}">
+          <x14:cfRule type="dataBar" id="{ECE7210C-1AA2-4ED7-85CF-B8FCB49AA731}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3500,7 +3034,7 @@
           <xm:sqref>H10:S10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cdd3085d-e1c3-4281-9365-ce68e647ef2f}">
+          <x14:cfRule type="dataBar" id="{CDD3085D-E1C3-4281-9365-CE68E647EF2F}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3513,7 +3047,7 @@
           <xm:sqref>G11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d1dd7dd0-c1b2-4eb3-908f-8ae3b6c7c87a}">
+          <x14:cfRule type="dataBar" id="{D1DD7DD0-C1B2-4EB3-908F-8AE3B6C7C87A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3526,7 +3060,7 @@
           <xm:sqref>H11:S11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4ee87680-0d4b-4b39-b260-9bda26a8b5ad}">
+          <x14:cfRule type="dataBar" id="{4EE87680-0D4B-4B39-B260-9BDA26A8B5AD}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3539,7 +3073,7 @@
           <xm:sqref>G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51dac9c2-eb12-4332-9f1e-75893e896b0b}">
+          <x14:cfRule type="dataBar" id="{51DAC9C2-EB12-4332-9F1E-75893E896B0B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3552,7 +3086,7 @@
           <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{188b6245-35e8-4b36-a0ae-fe2748702dfe}">
+          <x14:cfRule type="dataBar" id="{188B6245-35E8-4B36-A0AE-FE2748702DFE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3565,7 +3099,7 @@
           <xm:sqref>I12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dd591a0c-e01b-42ba-9aaa-a533d3dbe0ec}">
+          <x14:cfRule type="dataBar" id="{DD591A0C-E01B-42BA-9AAA-A533D3DBE0EC}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3578,59 +3112,59 @@
           <xm:sqref>J12:U12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e4b67c3-0af3-4840-bfdd-54d395e057ce}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eba3cc67-80ae-4a89-a79e-7a2f7f8e12d2}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ba11858d-4720-483c-9038-e18be2fa34c8}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c3b0186d-e724-402b-853b-7f70b9ce5e86}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H22:S22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{28ca8e5c-0edd-4963-b5b9-5ef76f53373c}">
+          <x14:cfRule type="dataBar" id="{7E4B67C3-0AF3-4840-BFDD-54D395E057CE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EBA3CC67-80AE-4A89-A79E-7A2F7F8E12D2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BA11858D-4720-483C-9038-E18BE2FA34C8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C3B0186D-E724-402B-853B-7F70B9CE5E86}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H23:S23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{28CA8E5C-0EDD-4963-B5B9-5EF76F53373C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3643,7 +3177,7 @@
           <xm:sqref>E8:E9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b6510d2d-db98-430d-a2ee-f8920a94d58c}">
+          <x14:cfRule type="dataBar" id="{B6510D2D-DB98-430D-A2EE-F8920A94D58C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3656,20 +3190,20 @@
           <xm:sqref>E11:E12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cc7cb7a6-a688-4d53-8b88-0d249d9a20dc}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E19:E21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7d03c53b-665e-48c7-9f9b-a8ffcc4ea118}">
+          <x14:cfRule type="dataBar" id="{CC7CB7A6-A688-4D53-8B88-0D249D9A20DC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E19:E22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7D03C53B-665E-48C7-9F9B-A8FFCC4EA118}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3682,7 +3216,7 @@
           <xm:sqref>F8:F9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13be9081-9bdc-48e0-bba7-eec00b57268b}">
+          <x14:cfRule type="dataBar" id="{13BE9081-9BDC-48E0-BBA7-EEC00B57268B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3695,7 +3229,7 @@
           <xm:sqref>F11:F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{693fd5a9-0239-4b16-950f-a101f8829fb7}">
+          <x14:cfRule type="dataBar" id="{693FD5A9-0239-4B16-950F-A101F8829FB7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3708,33 +3242,33 @@
           <xm:sqref>G8:G9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{01992685-6fc4-467c-a627-a3a6fe71d485}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F13:S18 F3:S3 C2:W2 C3:D21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15c30c50-4d89-4071-91be-9e703040dd0f}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E3 E13:E18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4e4b36a4-3f26-4433-9b95-eefb689bd695}">
+          <x14:cfRule type="dataBar" id="{01992685-6FC4-467C-A627-A3A6FE71D485}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F13:S18 F3:S3 C2:W2 C3:D22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{15C30C50-4D89-4071-91BE-9E703040DD0F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E13:E18 E3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4E4B36A4-3F26-4433-9B95-EEFB689BD695}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3747,17 +3281,17 @@
           <xm:sqref>H8:S9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{326ec3bb-e671-4e19-8899-e8ff6df4dc0c}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F19:S21</xm:sqref>
+          <x14:cfRule type="dataBar" id="{326EC3BB-E671-4E19-8899-E8FF6DF4DC0C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F19:S22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\project_instruction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5D7D30-7909-48CE-B287-DC9B04C7E11D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC3945A-4E44-4AD5-9415-C593089331D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>ACV-EUREKA</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>集成信鸽SDK，完成推送</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>liyang</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心接口开发</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公用短信接口集成</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -599,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -670,6 +682,15 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -680,12 +701,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1029,6 +1044,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="5" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1084,13 +1100,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1111,29 +1127,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E1" s="41">
+      <c r="E1" s="44">
         <v>2018</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45">
         <v>2019</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1207,7 +1223,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1240,7 +1256,7 @@
       <c r="W3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="11" t="s">
         <v>44</v>
       </c>
@@ -1271,10 +1287,10 @@
       <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:25" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1304,8 +1320,8 @@
       <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:25" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="12" t="s">
         <v>48</v>
       </c>
@@ -1333,8 +1349,8 @@
       <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:25" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="12" t="s">
         <v>49</v>
       </c>
@@ -1362,8 +1378,8 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1393,8 +1409,8 @@
       <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:25" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="12" t="s">
         <v>52</v>
       </c>
@@ -1421,7 +1437,7 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:25" s="1" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="14" t="s">
         <v>53</v>
       </c>
@@ -1452,10 +1468,10 @@
       <c r="W10" s="17"/>
     </row>
     <row r="11" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -1485,8 +1501,8 @@
       <c r="W11" s="17"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="18" t="s">
         <v>58</v>
       </c>
@@ -1516,7 +1532,7 @@
       <c r="Y12" s="17"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="11" t="s">
         <v>59</v>
       </c>
@@ -1532,8 +1548,8 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -1548,8 +1564,8 @@
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="18" t="s">
         <v>62</v>
       </c>
@@ -1562,8 +1578,8 @@
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="18" t="s">
         <v>63</v>
       </c>
@@ -1576,8 +1592,8 @@
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="18" t="s">
         <v>64</v>
       </c>
@@ -1590,8 +1606,8 @@
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="18" t="s">
         <v>65</v>
       </c>
@@ -1604,10 +1620,10 @@
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -1637,8 +1653,8 @@
       <c r="W19" s="22"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="18" t="s">
         <v>69</v>
       </c>
@@ -1666,14 +1682,14 @@
       <c r="W20" s="25"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="42" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="27"/>
@@ -1697,20 +1713,22 @@
       <c r="W21" s="27"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="11" t="s">
-        <v>59</v>
+      <c r="A22" s="43"/>
+      <c r="B22" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>80</v>
+      </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="34"/>
+      <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -1726,84 +1744,113 @@
       <c r="W22" s="27"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="36"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s">
-        <v>74</v>
+      <c r="C24" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="37"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="36"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:W1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:W1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A18"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E4">
@@ -2430,7 +2477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -2454,7 +2501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F24">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -2478,7 +2525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G24">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -2502,7 +2549,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:S23">
+  <conditionalFormatting sqref="H24:S24">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -2574,7 +2621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E22">
+  <conditionalFormatting sqref="E19:E23">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -2670,7 +2717,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:S18 F3:S3 C2:W2 C3:D22">
+  <conditionalFormatting sqref="F13:S18 F3:S3 C2:W2 C3:D23">
     <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="min"/>
@@ -2684,7 +2731,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:S18 F3:S3 C2:W2 C3:D23">
+  <conditionalFormatting sqref="F13:S18 F3:S3 C2:W2 C3:D24">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -2744,7 +2791,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:S22">
+  <conditionalFormatting sqref="F19:S23">
     <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
@@ -3122,7 +3169,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E23</xm:sqref>
+          <xm:sqref>E24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EBA3CC67-80AE-4A89-A79E-7A2F7F8E12D2}">
@@ -3135,7 +3182,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F23</xm:sqref>
+          <xm:sqref>F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA11858D-4720-483C-9038-E18BE2FA34C8}">
@@ -3148,7 +3195,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G23</xm:sqref>
+          <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C3B0186D-E724-402B-853B-7F70B9CE5E86}">
@@ -3161,7 +3208,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H23:S23</xm:sqref>
+          <xm:sqref>H24:S24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{28CA8E5C-0EDD-4963-B5B9-5EF76F53373C}">
@@ -3200,7 +3247,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E19:E22</xm:sqref>
+          <xm:sqref>E19:E23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D03C53B-665E-48C7-9F9B-A8FFCC4EA118}">
@@ -3252,7 +3299,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F13:S18 F3:S3 C2:W2 C3:D22</xm:sqref>
+          <xm:sqref>F13:S18 F3:S3 C2:W2 C3:D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{15C30C50-4D89-4071-91BE-9E703040DD0F}">
@@ -3291,7 +3338,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F19:S22</xm:sqref>
+          <xm:sqref>F19:S23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\project_instruction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC3945A-4E44-4AD5-9415-C593089331D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>ACV-EUREKA</t>
   </si>
@@ -229,6 +223,24 @@
     <t>5.APP调试</t>
   </si>
   <si>
+    <t>6.部署springcloud</t>
+  </si>
+  <si>
+    <t>guo.zj</t>
+  </si>
+  <si>
+    <t>7.地图发送到车机接口</t>
+  </si>
+  <si>
+    <t>8.导航路线发送接口</t>
+  </si>
+  <si>
+    <t>9.相关地图接口APP调试</t>
+  </si>
+  <si>
+    <t>10.车辆状态接口链接数据库</t>
+  </si>
+  <si>
     <t>ACV-NA服务注册</t>
   </si>
   <si>
@@ -242,6 +254,18 @@
     <t>2.将ACV-NA服务注册到ACV-EUREKA注册中心</t>
   </si>
   <si>
+    <t>ACV-NA推送消息</t>
+  </si>
+  <si>
+    <t>集成信鸽SDK，完成推送</t>
+  </si>
+  <si>
+    <t>消息中心接口开发</t>
+  </si>
+  <si>
+    <t>公用短信接口集成</t>
+  </si>
+  <si>
     <t>EMSP-SVC</t>
   </si>
   <si>
@@ -255,37 +279,19 @@
   </si>
   <si>
     <t>1.Breathe light 支持</t>
-  </si>
-  <si>
-    <t>ACV-NA推送消息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成信鸽SDK，完成推送</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>liyang</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中心接口开发</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公用短信接口集成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>liyang</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,13 +324,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -339,19 +338,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,19 +480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,8 +508,158 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -578,6 +836,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -592,47 +907,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="26" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="26" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="32" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="27" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="35" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,83 +1103,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="35" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="35" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="35" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="35" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20% - 着色 1" xfId="5" builtinId="30"/>
-    <cellStyle name="20% - 着色 6" xfId="3" builtinId="50"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
-    <cellStyle name="适中" xfId="4" builtinId="28"/>
-    <cellStyle name="输入" xfId="1" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -976,43 +1457,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="34.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="34.2166666666667" customWidth="1"/>
+    <col min="4" max="4" width="36.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+    <row r="1" ht="34.95" customHeight="1" spans="2:5">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" ht="17.55" customHeight="1" spans="1:3">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1022,56 +1503,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3">
       <c r="C3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="5" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.3333333333333" customWidth="1"/>
+    <col min="4" max="5" width="9.44166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1081,10 +1563,10 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="42">
         <v>43435</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="42">
         <v>43439</v>
       </c>
       <c r="F2" t="s">
@@ -1092,141 +1574,143 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" customWidth="1"/>
-    <col min="4" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="47.5583333333333" customWidth="1"/>
+    <col min="4" max="5" width="8.10833333333333" customWidth="1"/>
+    <col min="6" max="6" width="8.44166666666667" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="11" width="7.77734375" customWidth="1"/>
-    <col min="12" max="15" width="7.44140625" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" customWidth="1"/>
-    <col min="18" max="18" width="7.5546875" customWidth="1"/>
-    <col min="19" max="19" width="7.77734375" customWidth="1"/>
-    <col min="20" max="23" width="7.88671875" customWidth="1"/>
+    <col min="8" max="11" width="7.775" customWidth="1"/>
+    <col min="12" max="15" width="7.44166666666667" customWidth="1"/>
+    <col min="16" max="16" width="7.775" customWidth="1"/>
+    <col min="17" max="17" width="8.10833333333333" customWidth="1"/>
+    <col min="18" max="18" width="7.55833333333333" customWidth="1"/>
+    <col min="19" max="19" width="7.775" customWidth="1"/>
+    <col min="20" max="23" width="7.88333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E1" s="44">
+    <row r="1" ht="14.75" spans="5:23">
+      <c r="E1" s="2">
         <v>2018</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3">
         <v>2019</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="46"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="37"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="15.5" spans="1:23">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+    <row r="3" ht="17.55" customHeight="1" spans="1:23">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
@@ -1235,29 +1719,29 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:25" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" ht="16.05" customHeight="1" spans="1:23">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C4" t="s">
@@ -1266,577 +1750,646 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:25" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+    <row r="5" ht="28.05" customHeight="1" spans="1:23">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
     </row>
-    <row r="6" spans="1:25" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="12" t="s">
+    <row r="6" ht="28.05" customHeight="1" spans="1:23">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
     </row>
-    <row r="7" spans="1:25" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="12" t="s">
+    <row r="7" ht="20.55" customHeight="1" spans="1:23">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43" t="s">
+    <row r="8" ht="30" customHeight="1" spans="1:23">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
-    <row r="9" spans="1:25" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="12" t="s">
+    <row r="9" ht="19.05" customHeight="1" spans="1:23">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:25" s="1" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="14" t="s">
+    <row r="10" s="1" customFormat="1" ht="16.05" customHeight="1" spans="1:23">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+    <row r="11" ht="29.5" spans="1:23">
+      <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="1:25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="11" t="s">
+    <row r="13" ht="15.5" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="J13" s="33"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43" t="s">
+    <row r="14" ht="15.5" spans="1:9">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="J14" s="33"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="18" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="J15" s="33"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="18" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="J16" s="33"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="18" t="s">
+    <row r="17" ht="15.5" spans="1:9">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="J17" s="33"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="18" t="s">
+    <row r="18" ht="15.5" spans="1:9">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-      <c r="J18" s="33"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="24"/>
+      <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+    <row r="19" ht="15.5" spans="1:9">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="24"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="24"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" ht="15.5" spans="1:10">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="24"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" ht="15.5" spans="1:10">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="24"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" ht="28.75" spans="1:23">
+      <c r="A24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
+      <c r="B24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
+    <row r="25" spans="1:23">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="18" t="s">
+    <row r="26" spans="1:23">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="C26" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
+      <c r="D26" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="41" t="s">
+    <row r="27" spans="1:23">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C27" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D27" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+    </row>
+    <row r="28" ht="14.75" spans="1:23">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+    </row>
+    <row r="29" ht="14.75" spans="1:23">
+      <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
+      <c r="B29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="39"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="2" t="s">
+    <row r="30" spans="1:23">
+      <c r="A30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="36"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="37"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1844,15 +2397,14 @@
     <mergeCell ref="H1:W1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E4">
     <cfRule type="dataBar" priority="37">
       <dataBar>
@@ -1862,7 +2414,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6B2EF92E-B90C-44E9-AF4E-EB1FCFFF11B2}</x14:id>
+          <x14:id>{193b218b-3fdd-4906-ba41-473a471b8975}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1886,7 +2438,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5F1BCE7E-3796-4E1A-9ADA-1A2EFCC1E224}</x14:id>
+          <x14:id>{01eefb6e-3908-4d7e-b315-c38ef15bac7a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1910,7 +2462,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{732D20F8-1A00-449E-80B3-6BB212AA1F6E}</x14:id>
+          <x14:id>{cf685b32-9e20-476f-9748-4d71c55d77e8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1934,7 +2486,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21DB59C8-6B65-4F06-93E6-A3A19BCA8F75}</x14:id>
+          <x14:id>{556d053a-fa3d-4108-89d9-47fc480c312e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1958,7 +2510,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{258DDBF2-CFED-48D7-A1C3-C4262C202C4F}</x14:id>
+          <x14:id>{8461085e-c92c-4ce6-8599-42e225d9dd5e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1982,7 +2534,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BDE95B38-7B7C-4025-B3F5-5D29BA951B49}</x14:id>
+          <x14:id>{1fcf61c6-b595-4a3f-848b-136f35387d3b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2006,7 +2558,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{60722750-7A58-430D-AEA9-658C935D7F40}</x14:id>
+          <x14:id>{b1f3bb62-937f-457b-a400-b79f33f93265}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2030,7 +2582,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DBAE8554-C6A7-4343-8095-2BF943145964}</x14:id>
+          <x14:id>{1ca3418d-fe1b-4e4b-80c1-c2840b944bbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2054,7 +2606,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4C1540B8-C27C-4F3B-BE7E-F5827D2F019E}</x14:id>
+          <x14:id>{c301ead8-517d-4dba-aa0c-dbd44f9f9f0f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2078,7 +2630,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{418BB6E2-3E8A-4F49-8204-AED9F52174BB}</x14:id>
+          <x14:id>{a15fc79e-c30d-4f74-b569-f015ff783ebd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2102,7 +2654,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6F488789-18DE-4604-A407-05781F2FD826}</x14:id>
+          <x14:id>{86d4fe84-4a68-4350-96a4-cfe2bf94a81a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2126,7 +2678,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{532106DC-26E9-48CE-BD0A-C31C633C65B5}</x14:id>
+          <x14:id>{59c4d1f4-20ff-4040-83eb-0e979142d43f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2150,7 +2702,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{62058CB8-EE94-405F-B29F-88A1137B3BF9}</x14:id>
+          <x14:id>{35331ffc-9e06-4b57-81d4-4900c6238336}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2174,7 +2726,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{113B716B-FC0F-42CF-A926-796BDE785BDD}</x14:id>
+          <x14:id>{4efb2be3-997d-4862-b39c-ab157ff82335}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2198,7 +2750,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85F5FB1E-355F-43AF-A644-B5AA30422DFF}</x14:id>
+          <x14:id>{9e85005f-3b84-47d8-9411-47157e34e754}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2222,7 +2774,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B3B40D44-53FA-4527-B397-B57C95E8E975}</x14:id>
+          <x14:id>{453d4f72-7582-4d17-8f2d-9562a02e8f20}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2246,7 +2798,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FDBCF218-DCFB-43E7-B62B-0EC7B6E2D692}</x14:id>
+          <x14:id>{f08cfc04-2816-477e-b5ed-50beaa3101e4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2270,7 +2822,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C6794670-CFC0-4575-B69C-0C4FFEB33263}</x14:id>
+          <x14:id>{b25ebfbf-10ec-46b2-90d6-db4a7daee811}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2294,7 +2846,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7E7CBDE7-A730-4EE2-ACB5-BEFE4DFCF040}</x14:id>
+          <x14:id>{ac549a67-8d00-4077-a697-bb4844bf65f9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2318,7 +2870,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ECE7210C-1AA2-4ED7-85CF-B8FCB49AA731}</x14:id>
+          <x14:id>{617875d1-d7d6-40c7-98d3-d401ce4cd5de}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2342,7 +2894,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CDD3085D-E1C3-4281-9365-CE68E647EF2F}</x14:id>
+          <x14:id>{65bf5bec-826f-487d-884e-3aad29ec1e46}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2366,7 +2918,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D1DD7DD0-C1B2-4EB3-908F-8AE3B6C7C87A}</x14:id>
+          <x14:id>{8dc3e689-181f-4837-b9a4-061d0cdc8927}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2390,7 +2942,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4EE87680-0D4B-4B39-B260-9BDA26A8B5AD}</x14:id>
+          <x14:id>{a114bad9-0506-40ca-949a-63da3346783d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2414,7 +2966,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51DAC9C2-EB12-4332-9F1E-75893E896B0B}</x14:id>
+          <x14:id>{d1d3c348-6b15-4e14-83d1-f8a925cc5eba}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2438,7 +2990,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{188B6245-35E8-4B36-A0AE-FE2748702DFE}</x14:id>
+          <x14:id>{be0df851-ecdc-42b4-9441-349e99560f01}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2462,7 +3014,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DD591A0C-E01B-42BA-9AAA-A533D3DBE0EC}</x14:id>
+          <x14:id>{ecdb2463-91a0-44d4-b4b4-f929b67cc51e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2477,7 +3029,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E29">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -2486,7 +3038,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7E4B67C3-0AF3-4840-BFDD-54D395E057CE}</x14:id>
+          <x14:id>{fa122fc2-8639-4581-9151-888c351aa564}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2501,7 +3053,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F29">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -2510,7 +3062,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EBA3CC67-80AE-4A89-A79E-7A2F7F8E12D2}</x14:id>
+          <x14:id>{b2c6af3c-f324-4966-b64a-423181876bdc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2525,7 +3077,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G29">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -2534,7 +3086,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BA11858D-4720-483C-9038-E18BE2FA34C8}</x14:id>
+          <x14:id>{c708f6b4-718a-47d5-b4fc-c08191d67c24}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2549,7 +3101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:S24">
+  <conditionalFormatting sqref="H29:S29">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -2558,7 +3110,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C3B0186D-E724-402B-853B-7F70B9CE5E86}</x14:id>
+          <x14:id>{b3af25f3-62f0-472c-8ef1-d2b3bfb94183}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2582,7 +3134,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28CA8E5C-0EDD-4963-B5B9-5EF76F53373C}</x14:id>
+          <x14:id>{2880dd5d-1a9b-4691-a5fa-27d70b5719f2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2606,7 +3158,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B6510D2D-DB98-430D-A2EE-F8920A94D58C}</x14:id>
+          <x14:id>{545923ab-40b0-441d-bfd2-c457230b5507}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2621,7 +3173,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E23">
+  <conditionalFormatting sqref="E24:E28">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -2630,7 +3182,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CC7CB7A6-A688-4D53-8B88-0D249D9A20DC}</x14:id>
+          <x14:id>{f93d90dc-1b03-42cd-9bec-53f4c6c3279e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2654,7 +3206,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7D03C53B-665E-48C7-9F9B-A8FFCC4EA118}</x14:id>
+          <x14:id>{4f950daf-5db9-4b59-ae27-9ce0e5465029}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2678,7 +3230,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{13BE9081-9BDC-48E0-BBA7-EEC00B57268B}</x14:id>
+          <x14:id>{8e10d9b9-ce2b-4f5a-93e6-20544f7ba76b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2702,7 +3254,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{693FD5A9-0239-4B16-950F-A101F8829FB7}</x14:id>
+          <x14:id>{3e9fdd3d-a9d5-450a-a6bf-3551a7e12c7c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2717,7 +3269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:S18 F3:S3 C2:W2 C3:D23">
+  <conditionalFormatting sqref="K13:S23 F13:H23 I13:I21 I22:J23 C3:D28 F3:S3 C2:W2">
     <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="min"/>
@@ -2726,12 +3278,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01992685-6FC4-467C-A627-A3A6FE71D485}</x14:id>
+          <x14:id>{3f87565a-6b9d-4fcf-ac9a-f009b5aba637}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:S18 F3:S3 C2:W2 C3:D24">
+  <conditionalFormatting sqref="K13:S23 F13:H23 I13:I21 I22:J23 C3:D29 F3:S3 C2:W2">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -2743,7 +3295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E18 E3">
+  <conditionalFormatting sqref="E13:E23 E3">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
@@ -2752,7 +3304,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15C30C50-4D89-4071-91BE-9E703040DD0F}</x14:id>
+          <x14:id>{ba7640f7-3c6a-472a-a4aa-c8f685bd84cb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2776,7 +3328,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4E4B36A4-3F26-4433-9B95-EEFB689BD695}</x14:id>
+          <x14:id>{a8aaa4db-d2b4-40a5-b7c4-73547f741fa0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2791,7 +3343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:S23">
+  <conditionalFormatting sqref="F24:S28">
     <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
@@ -2800,7 +3352,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{326EC3BB-E671-4E19-8899-E8FF6DF4DC0C}</x14:id>
+          <x14:id>{93e9265f-e257-43cc-b206-59d2dce2ca8a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2815,13 +3367,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6B2EF92E-B90C-44E9-AF4E-EB1FCFFF11B2}">
+          <x14:cfRule type="dataBar" id="{193b218b-3fdd-4906-ba41-473a471b8975}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2834,7 +3387,7 @@
           <xm:sqref>E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5F1BCE7E-3796-4E1A-9ADA-1A2EFCC1E224}">
+          <x14:cfRule type="dataBar" id="{01eefb6e-3908-4d7e-b315-c38ef15bac7a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2847,7 +3400,7 @@
           <xm:sqref>F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{732D20F8-1A00-449E-80B3-6BB212AA1F6E}">
+          <x14:cfRule type="dataBar" id="{cf685b32-9e20-476f-9748-4d71c55d77e8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2860,7 +3413,7 @@
           <xm:sqref>G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21DB59C8-6B65-4F06-93E6-A3A19BCA8F75}">
+          <x14:cfRule type="dataBar" id="{556d053a-fa3d-4108-89d9-47fc480c312e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2873,7 +3426,7 @@
           <xm:sqref>H4:S4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{258DDBF2-CFED-48D7-A1C3-C4262C202C4F}">
+          <x14:cfRule type="dataBar" id="{8461085e-c92c-4ce6-8599-42e225d9dd5e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2886,7 +3439,7 @@
           <xm:sqref>E5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BDE95B38-7B7C-4025-B3F5-5D29BA951B49}">
+          <x14:cfRule type="dataBar" id="{1fcf61c6-b595-4a3f-848b-136f35387d3b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2899,7 +3452,7 @@
           <xm:sqref>F5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{60722750-7A58-430D-AEA9-658C935D7F40}">
+          <x14:cfRule type="dataBar" id="{b1f3bb62-937f-457b-a400-b79f33f93265}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2912,7 +3465,7 @@
           <xm:sqref>G5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DBAE8554-C6A7-4343-8095-2BF943145964}">
+          <x14:cfRule type="dataBar" id="{1ca3418d-fe1b-4e4b-80c1-c2840b944bbb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2925,7 +3478,7 @@
           <xm:sqref>H5:S5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4C1540B8-C27C-4F3B-BE7E-F5827D2F019E}">
+          <x14:cfRule type="dataBar" id="{c301ead8-517d-4dba-aa0c-dbd44f9f9f0f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2938,7 +3491,7 @@
           <xm:sqref>E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{418BB6E2-3E8A-4F49-8204-AED9F52174BB}">
+          <x14:cfRule type="dataBar" id="{a15fc79e-c30d-4f74-b569-f015ff783ebd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2951,7 +3504,7 @@
           <xm:sqref>F6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6F488789-18DE-4604-A407-05781F2FD826}">
+          <x14:cfRule type="dataBar" id="{86d4fe84-4a68-4350-96a4-cfe2bf94a81a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2964,7 +3517,7 @@
           <xm:sqref>G6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{532106DC-26E9-48CE-BD0A-C31C633C65B5}">
+          <x14:cfRule type="dataBar" id="{59c4d1f4-20ff-4040-83eb-0e979142d43f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2977,7 +3530,7 @@
           <xm:sqref>H6:S6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{62058CB8-EE94-405F-B29F-88A1137B3BF9}">
+          <x14:cfRule type="dataBar" id="{35331ffc-9e06-4b57-81d4-4900c6238336}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2990,7 +3543,7 @@
           <xm:sqref>E7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{113B716B-FC0F-42CF-A926-796BDE785BDD}">
+          <x14:cfRule type="dataBar" id="{4efb2be3-997d-4862-b39c-ab157ff82335}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3003,7 +3556,7 @@
           <xm:sqref>F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85F5FB1E-355F-43AF-A644-B5AA30422DFF}">
+          <x14:cfRule type="dataBar" id="{9e85005f-3b84-47d8-9411-47157e34e754}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3016,7 +3569,7 @@
           <xm:sqref>G7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B3B40D44-53FA-4527-B397-B57C95E8E975}">
+          <x14:cfRule type="dataBar" id="{453d4f72-7582-4d17-8f2d-9562a02e8f20}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3029,7 +3582,7 @@
           <xm:sqref>H7:S7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FDBCF218-DCFB-43E7-B62B-0EC7B6E2D692}">
+          <x14:cfRule type="dataBar" id="{f08cfc04-2816-477e-b5ed-50beaa3101e4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3042,7 +3595,7 @@
           <xm:sqref>E10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C6794670-CFC0-4575-B69C-0C4FFEB33263}">
+          <x14:cfRule type="dataBar" id="{b25ebfbf-10ec-46b2-90d6-db4a7daee811}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3055,7 +3608,7 @@
           <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7E7CBDE7-A730-4EE2-ACB5-BEFE4DFCF040}">
+          <x14:cfRule type="dataBar" id="{ac549a67-8d00-4077-a697-bb4844bf65f9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3068,7 +3621,7 @@
           <xm:sqref>G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ECE7210C-1AA2-4ED7-85CF-B8FCB49AA731}">
+          <x14:cfRule type="dataBar" id="{617875d1-d7d6-40c7-98d3-d401ce4cd5de}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3081,7 +3634,7 @@
           <xm:sqref>H10:S10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CDD3085D-E1C3-4281-9365-CE68E647EF2F}">
+          <x14:cfRule type="dataBar" id="{65bf5bec-826f-487d-884e-3aad29ec1e46}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3094,7 +3647,7 @@
           <xm:sqref>G11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D1DD7DD0-C1B2-4EB3-908F-8AE3B6C7C87A}">
+          <x14:cfRule type="dataBar" id="{8dc3e689-181f-4837-b9a4-061d0cdc8927}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3107,7 +3660,7 @@
           <xm:sqref>H11:S11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4EE87680-0D4B-4B39-B260-9BDA26A8B5AD}">
+          <x14:cfRule type="dataBar" id="{a114bad9-0506-40ca-949a-63da3346783d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3120,7 +3673,7 @@
           <xm:sqref>G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51DAC9C2-EB12-4332-9F1E-75893E896B0B}">
+          <x14:cfRule type="dataBar" id="{d1d3c348-6b15-4e14-83d1-f8a925cc5eba}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3133,7 +3686,7 @@
           <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{188B6245-35E8-4B36-A0AE-FE2748702DFE}">
+          <x14:cfRule type="dataBar" id="{be0df851-ecdc-42b4-9441-349e99560f01}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3146,7 +3699,7 @@
           <xm:sqref>I12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DD591A0C-E01B-42BA-9AAA-A533D3DBE0EC}">
+          <x14:cfRule type="dataBar" id="{ecdb2463-91a0-44d4-b4b4-f929b67cc51e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3159,7 +3712,7 @@
           <xm:sqref>J12:U12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7E4B67C3-0AF3-4840-BFDD-54D395E057CE}">
+          <x14:cfRule type="dataBar" id="{fa122fc2-8639-4581-9151-888c351aa564}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3169,10 +3722,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E24</xm:sqref>
+          <xm:sqref>E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EBA3CC67-80AE-4A89-A79E-7A2F7F8E12D2}">
+          <x14:cfRule type="dataBar" id="{b2c6af3c-f324-4966-b64a-423181876bdc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3182,10 +3735,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F24</xm:sqref>
+          <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BA11858D-4720-483C-9038-E18BE2FA34C8}">
+          <x14:cfRule type="dataBar" id="{c708f6b4-718a-47d5-b4fc-c08191d67c24}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3195,10 +3748,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G24</xm:sqref>
+          <xm:sqref>G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C3B0186D-E724-402B-853B-7F70B9CE5E86}">
+          <x14:cfRule type="dataBar" id="{b3af25f3-62f0-472c-8ef1-d2b3bfb94183}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3208,10 +3761,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H24:S24</xm:sqref>
+          <xm:sqref>H29:S29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{28CA8E5C-0EDD-4963-B5B9-5EF76F53373C}">
+          <x14:cfRule type="dataBar" id="{2880dd5d-1a9b-4691-a5fa-27d70b5719f2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3224,7 +3777,7 @@
           <xm:sqref>E8:E9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B6510D2D-DB98-430D-A2EE-F8920A94D58C}">
+          <x14:cfRule type="dataBar" id="{545923ab-40b0-441d-bfd2-c457230b5507}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3237,7 +3790,7 @@
           <xm:sqref>E11:E12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CC7CB7A6-A688-4D53-8B88-0D249D9A20DC}">
+          <x14:cfRule type="dataBar" id="{f93d90dc-1b03-42cd-9bec-53f4c6c3279e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3247,10 +3800,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E19:E23</xm:sqref>
+          <xm:sqref>E24:E28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7D03C53B-665E-48C7-9F9B-A8FFCC4EA118}">
+          <x14:cfRule type="dataBar" id="{4f950daf-5db9-4b59-ae27-9ce0e5465029}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3263,7 +3816,7 @@
           <xm:sqref>F8:F9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13BE9081-9BDC-48E0-BBA7-EEC00B57268B}">
+          <x14:cfRule type="dataBar" id="{8e10d9b9-ce2b-4f5a-93e6-20544f7ba76b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3276,7 +3829,7 @@
           <xm:sqref>F11:F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{693FD5A9-0239-4B16-950F-A101F8829FB7}">
+          <x14:cfRule type="dataBar" id="{3e9fdd3d-a9d5-450a-a6bf-3551a7e12c7c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3289,7 +3842,7 @@
           <xm:sqref>G8:G9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{01992685-6FC4-467C-A627-A3A6FE71D485}">
+          <x14:cfRule type="dataBar" id="{3f87565a-6b9d-4fcf-ac9a-f009b5aba637}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3299,10 +3852,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F13:S18 F3:S3 C2:W2 C3:D23</xm:sqref>
+          <xm:sqref>K13:S23 F13:H23 I13:I21 I22:J23 C3:D28 F3:S3 C2:W2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15C30C50-4D89-4071-91BE-9E703040DD0F}">
+          <x14:cfRule type="dataBar" id="{ba7640f7-3c6a-472a-a4aa-c8f685bd84cb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3312,10 +3865,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E13:E18 E3</xm:sqref>
+          <xm:sqref>E13:E23 E3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4E4B36A4-3F26-4433-9B95-EEFB689BD695}">
+          <x14:cfRule type="dataBar" id="{a8aaa4db-d2b4-40a5-b7c4-73547f741fa0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3328,7 +3881,7 @@
           <xm:sqref>H8:S9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{326EC3BB-E671-4E19-8899-E8FF6DF4DC0C}">
+          <x14:cfRule type="dataBar" id="{93e9265f-e257-43cc-b206-59d2dce2ca8a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3338,7 +3891,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F19:S23</xm:sqref>
+          <xm:sqref>F24:S28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ideaWorkSpaces\项目相关文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,11 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>ACV-EUREKA</t>
   </si>
@@ -279,19 +285,41 @@
   </si>
   <si>
     <t>1.Breathe light 支持</t>
+  </si>
+  <si>
+    <t>ACV-CA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVC-CONFIG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACV-CONFIG项目搭建</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangbo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACV-CA项目搭建</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用git统一管理其他模块配置文件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ZUUL网关过滤器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,126 +368,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,19 +399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,158 +427,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -836,63 +605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -907,193 +619,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="26" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="26" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="27" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="35" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1123,83 +689,125 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="35" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="35" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="35" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="35" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="6">
+    <cellStyle name="20% - 着色 1" xfId="5" builtinId="30"/>
+    <cellStyle name="20% - 着色 6" xfId="3" builtinId="50"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
+    <cellStyle name="输入" xfId="1" builtinId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1213,7 +821,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="DCEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1457,43 +1065,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="34.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="34.2166666666667" customWidth="1"/>
-    <col min="4" max="4" width="36.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="36.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.9140625" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.95" customHeight="1" spans="2:5">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.55" customHeight="1" spans="1:3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1503,57 +1111,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.3333333333333" customWidth="1"/>
-    <col min="4" max="5" width="9.44166666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="5" width="9.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1563,10 +1170,10 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="39">
         <v>43435</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="39">
         <v>43439</v>
       </c>
       <c r="F2" t="s">
@@ -1574,143 +1181,141 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Y30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="26.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="47.5583333333333" customWidth="1"/>
-    <col min="4" max="5" width="8.10833333333333" customWidth="1"/>
-    <col min="6" max="6" width="8.44166666666667" customWidth="1"/>
+    <col min="2" max="2" width="26.4140625" customWidth="1"/>
+    <col min="3" max="3" width="47.58203125" customWidth="1"/>
+    <col min="4" max="5" width="8.08203125" customWidth="1"/>
+    <col min="6" max="6" width="8.4140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="11" width="7.775" customWidth="1"/>
-    <col min="12" max="15" width="7.44166666666667" customWidth="1"/>
-    <col min="16" max="16" width="7.775" customWidth="1"/>
-    <col min="17" max="17" width="8.10833333333333" customWidth="1"/>
-    <col min="18" max="18" width="7.55833333333333" customWidth="1"/>
-    <col min="19" max="19" width="7.775" customWidth="1"/>
-    <col min="20" max="23" width="7.88333333333333" customWidth="1"/>
+    <col min="8" max="11" width="7.75" customWidth="1"/>
+    <col min="12" max="15" width="7.4140625" customWidth="1"/>
+    <col min="16" max="16" width="7.75" customWidth="1"/>
+    <col min="17" max="17" width="8.08203125" customWidth="1"/>
+    <col min="18" max="18" width="7.58203125" customWidth="1"/>
+    <col min="19" max="19" width="7.75" customWidth="1"/>
+    <col min="20" max="23" width="7.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75" spans="5:23">
-      <c r="E1" s="2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E1" s="42">
         <v>2018</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43">
         <v>2019</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="37"/>
-    </row>
-    <row r="2" ht="15.5" spans="1:23">
-      <c r="A2" s="4" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" ht="17.55" customHeight="1" spans="1:23">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
@@ -1719,693 +1324,756 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-    </row>
-    <row r="4" ht="16.05" customHeight="1" spans="1:23">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" spans="1:25" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="41"/>
+      <c r="B4" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="1:25" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-    </row>
-    <row r="5" ht="28.05" customHeight="1" spans="1:23">
-      <c r="A5" s="13" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="1:25" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:25" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B7" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-    </row>
-    <row r="6" ht="28.05" customHeight="1" spans="1:23">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-    </row>
-    <row r="7" ht="20.55" customHeight="1" spans="1:23">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="1:25" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:23">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-    </row>
-    <row r="9" ht="19.05" customHeight="1" spans="1:23">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="16.05" customHeight="1" spans="1:23">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-    </row>
-    <row r="11" ht="29.5" spans="1:23">
-      <c r="A11" s="13" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="1:25" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B13" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="20" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-    </row>
-    <row r="13" ht="15.5" spans="1:7">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" ht="15.5" spans="1:9">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="20" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="20" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" ht="15.5" spans="1:9">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="20" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="I17" s="36"/>
-    </row>
-    <row r="18" ht="15.5" spans="1:9">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="20" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
-      <c r="I18" s="36"/>
-    </row>
-    <row r="19" ht="15.5" spans="1:9">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="20" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="22"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
-      <c r="I19" s="36"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="20" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
-      <c r="I20" s="36"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="20" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D23" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
-      <c r="I21" s="36"/>
-    </row>
-    <row r="22" ht="15.5" spans="1:10">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="20" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D24" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="24"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" ht="15.5" spans="1:10">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="20" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="24"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" ht="28.75" spans="1:23">
-      <c r="A24" s="13" t="s">
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B26" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D26" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="20" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D27" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="41"/>
+      <c r="B28" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="41"/>
+      <c r="B29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D29" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-    </row>
-    <row r="28" ht="14.75" spans="1:23">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="41"/>
+      <c r="B30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-    </row>
-    <row r="29" ht="14.75" spans="1:23">
-      <c r="A29" s="2" t="s">
+      <c r="D30" s="19"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C31" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="39"/>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="2" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="36"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="40"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:W1"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:B25"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="E4:E6">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
@@ -2414,7 +2082,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{193b218b-3fdd-4906-ba41-473a471b8975}</x14:id>
+          <x14:id>{193B218B-3FDD-4906-BA41-473A471B8975}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2429,7 +2097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F4:F6">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="min"/>
@@ -2438,7 +2106,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01eefb6e-3908-4d7e-b315-c38ef15bac7a}</x14:id>
+          <x14:id>{01EEFB6E-3908-4D7E-B315-C38EF15BAC7A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2453,7 +2121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="G4:G6">
     <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="min"/>
@@ -2462,7 +2130,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cf685b32-9e20-476f-9748-4d71c55d77e8}</x14:id>
+          <x14:id>{CF685B32-9E20-476F-9748-4D71C55D77E8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2477,7 +2145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:S4">
+  <conditionalFormatting sqref="H4:S6">
     <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="min"/>
@@ -2486,7 +2154,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{556d053a-fa3d-4108-89d9-47fc480c312e}</x14:id>
+          <x14:id>{556D053A-FA3D-4108-89D9-47FC480C312E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2501,7 +2169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
+  <conditionalFormatting sqref="E7">
     <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
@@ -2510,7 +2178,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8461085e-c92c-4ce6-8599-42e225d9dd5e}</x14:id>
+          <x14:id>{8461085E-C92C-4CE6-8599-42E225D9DD5E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2525,7 +2193,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F7">
     <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="min"/>
@@ -2534,7 +2202,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1fcf61c6-b595-4a3f-848b-136f35387d3b}</x14:id>
+          <x14:id>{1FCF61C6-B595-4A3F-848B-136F35387D3B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2549,7 +2217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G7">
     <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
@@ -2558,7 +2226,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b1f3bb62-937f-457b-a400-b79f33f93265}</x14:id>
+          <x14:id>{B1F3BB62-937F-457B-A400-B79F33F93265}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2573,7 +2241,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:S5">
+  <conditionalFormatting sqref="H7:S7">
     <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
@@ -2582,7 +2250,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1ca3418d-fe1b-4e4b-80c1-c2840b944bbb}</x14:id>
+          <x14:id>{1CA3418D-FE1B-4E4B-80C1-C2840B944BBB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2597,7 +2265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E8">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
@@ -2606,7 +2274,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c301ead8-517d-4dba-aa0c-dbd44f9f9f0f}</x14:id>
+          <x14:id>{C301EAD8-517D-4DBA-AA0C-DBD44F9F9F0F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2621,7 +2289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F8">
     <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="min"/>
@@ -2630,7 +2298,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a15fc79e-c30d-4f74-b569-f015ff783ebd}</x14:id>
+          <x14:id>{A15FC79E-C30D-4F74-B569-F015FF783EBD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2645,7 +2313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="G8">
     <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
@@ -2654,7 +2322,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86d4fe84-4a68-4350-96a4-cfe2bf94a81a}</x14:id>
+          <x14:id>{86D4FE84-4A68-4350-96A4-CFE2BF94A81A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2669,7 +2337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:S6">
+  <conditionalFormatting sqref="H8:S8">
     <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="min"/>
@@ -2678,7 +2346,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{59c4d1f4-20ff-4040-83eb-0e979142d43f}</x14:id>
+          <x14:id>{59C4D1F4-20FF-4040-83EB-0E979142D43F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2693,7 +2361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E9">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
@@ -2702,7 +2370,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{35331ffc-9e06-4b57-81d4-4900c6238336}</x14:id>
+          <x14:id>{35331FFC-9E06-4B57-81D4-4900C6238336}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2717,7 +2385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F9">
     <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
@@ -2726,7 +2394,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4efb2be3-997d-4862-b39c-ab157ff82335}</x14:id>
+          <x14:id>{4EFB2BE3-997D-4862-B39C-AB157FF82335}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2741,7 +2409,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="G9">
     <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
@@ -2750,7 +2418,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9e85005f-3b84-47d8-9411-47157e34e754}</x14:id>
+          <x14:id>{9E85005F-3B84-47D8-9411-47157E34E754}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2765,7 +2433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:S7">
+  <conditionalFormatting sqref="H9:S9">
     <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
@@ -2774,7 +2442,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{453d4f72-7582-4d17-8f2d-9562a02e8f20}</x14:id>
+          <x14:id>{453D4F72-7582-4D17-8F2D-9562A02E8F20}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2789,7 +2457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E12">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
@@ -2798,7 +2466,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f08cfc04-2816-477e-b5ed-50beaa3101e4}</x14:id>
+          <x14:id>{F08CFC04-2816-477E-B5ED-50BEAA3101E4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2813,7 +2481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="F12">
     <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
@@ -2822,7 +2490,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b25ebfbf-10ec-46b2-90d6-db4a7daee811}</x14:id>
+          <x14:id>{B25EBFBF-10EC-46B2-90D6-DB4A7DAEE811}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2837,7 +2505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G12">
     <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
@@ -2846,7 +2514,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ac549a67-8d00-4077-a697-bb4844bf65f9}</x14:id>
+          <x14:id>{AC549A67-8D00-4077-A697-BB4844BF65F9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2861,7 +2529,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:S10">
+  <conditionalFormatting sqref="H12:S12">
     <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
@@ -2870,7 +2538,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{617875d1-d7d6-40c7-98d3-d401ce4cd5de}</x14:id>
+          <x14:id>{617875D1-D7D6-40C7-98D3-D401CE4CD5DE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2885,7 +2553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="G13">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -2894,7 +2562,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{65bf5bec-826f-487d-884e-3aad29ec1e46}</x14:id>
+          <x14:id>{65BF5BEC-826F-487D-884E-3AAD29EC1E46}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2909,7 +2577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:S11">
+  <conditionalFormatting sqref="H13:S13">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -2918,7 +2586,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8dc3e689-181f-4837-b9a4-061d0cdc8927}</x14:id>
+          <x14:id>{8DC3E689-181F-4837-B9A4-061D0CDC8927}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2933,7 +2601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="G14">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2942,7 +2610,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a114bad9-0506-40ca-949a-63da3346783d}</x14:id>
+          <x14:id>{A114BAD9-0506-40CA-949A-63DA3346783D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2957,7 +2625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H14">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -2966,7 +2634,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d1d3c348-6b15-4e14-83d1-f8a925cc5eba}</x14:id>
+          <x14:id>{D1D3C348-6B15-4E14-83D1-F8A925CC5EBA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2981,7 +2649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="I14">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -2990,7 +2658,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{be0df851-ecdc-42b4-9441-349e99560f01}</x14:id>
+          <x14:id>{BE0DF851-ECDC-42B4-9441-349E99560F01}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3005,7 +2673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:U12">
+  <conditionalFormatting sqref="J14:U14">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -3014,7 +2682,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ecdb2463-91a0-44d4-b4b4-f929b67cc51e}</x14:id>
+          <x14:id>{ECDB2463-91A0-44D4-B4B4-F929B67CC51E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3029,7 +2697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E31">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -3038,7 +2706,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa122fc2-8639-4581-9151-888c351aa564}</x14:id>
+          <x14:id>{FA122FC2-8639-4581-9151-888C351AA564}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3053,7 +2721,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="F31">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -3062,7 +2730,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b2c6af3c-f324-4966-b64a-423181876bdc}</x14:id>
+          <x14:id>{B2C6AF3C-F324-4966-B64A-423181876BDC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3077,7 +2745,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G31">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -3086,7 +2754,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c708f6b4-718a-47d5-b4fc-c08191d67c24}</x14:id>
+          <x14:id>{C708F6B4-718A-47D5-B4FC-C08191D67C24}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3101,7 +2769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:S29">
+  <conditionalFormatting sqref="H31:S31">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -3110,7 +2778,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b3af25f3-62f0-472c-8ef1-d2b3bfb94183}</x14:id>
+          <x14:id>{B3AF25F3-62F0-472C-8EF1-D2B3BFB94183}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3125,7 +2793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="E10:E11">
     <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
@@ -3134,7 +2802,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2880dd5d-1a9b-4691-a5fa-27d70b5719f2}</x14:id>
+          <x14:id>{2880DD5D-1A9B-4691-A5FA-27D70B5719F2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3149,7 +2817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
+  <conditionalFormatting sqref="E13:E14">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -3158,7 +2826,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{545923ab-40b0-441d-bfd2-c457230b5507}</x14:id>
+          <x14:id>{545923AB-40B0-441D-BFD2-C457230B5507}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3173,7 +2841,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E28">
+  <conditionalFormatting sqref="E26:E30">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -3182,7 +2850,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f93d90dc-1b03-42cd-9bec-53f4c6c3279e}</x14:id>
+          <x14:id>{F93D90DC-1B03-42CD-9BEC-53F4C6C3279E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3197,7 +2865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="F10:F11">
     <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
@@ -3206,7 +2874,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4f950daf-5db9-4b59-ae27-9ce0e5465029}</x14:id>
+          <x14:id>{4F950DAF-5DB9-4B59-AE27-9CE0E5465029}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3221,7 +2889,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F12">
+  <conditionalFormatting sqref="F13:F14">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -3230,7 +2898,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8e10d9b9-ce2b-4f5a-93e6-20544f7ba76b}</x14:id>
+          <x14:id>{8E10D9B9-CE2B-4F5A-93E6-20544F7BA76B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3245,7 +2913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="G10:G11">
     <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="min"/>
@@ -3254,7 +2922,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3e9fdd3d-a9d5-450a-a6bf-3551a7e12c7c}</x14:id>
+          <x14:id>{3E9FDD3D-A9D5-450A-A6BF-3551A7E12C7C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3269,7 +2937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:S23 F13:H23 I13:I21 I22:J23 C3:D28 F3:S3 C2:W2">
+  <conditionalFormatting sqref="K15:S25 F15:H25 I15:I23 I24:J25 C3:D30 F3:S3 C2:W2">
     <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="min"/>
@@ -3278,12 +2946,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3f87565a-6b9d-4fcf-ac9a-f009b5aba637}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:S23 F13:H23 I13:I21 I22:J23 C3:D29 F3:S3 C2:W2">
+          <x14:id>{3F87565A-6B9D-4FCF-AC9A-F009B5ABA637}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:S25 F15:H25 I15:I23 I24:J25 C3:D31 F3:S3 C2:W2">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -3295,7 +2963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E23 E3">
+  <conditionalFormatting sqref="E15:E25 E3">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
@@ -3304,7 +2972,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ba7640f7-3c6a-472a-a4aa-c8f685bd84cb}</x14:id>
+          <x14:id>{BA7640F7-3C6A-472A-A4AA-C8F685BD84CB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3319,7 +2987,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:S9">
+  <conditionalFormatting sqref="H10:S11">
     <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="min"/>
@@ -3328,7 +2996,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a8aaa4db-d2b4-40a5-b7c4-73547f741fa0}</x14:id>
+          <x14:id>{A8AAA4DB-D2B4-40A5-B7C4-73547F741FA0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3343,7 +3011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:S28">
+  <conditionalFormatting sqref="F26:S30">
     <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
@@ -3352,7 +3020,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93e9265f-e257-43cc-b206-59d2dce2ca8a}</x14:id>
+          <x14:id>{93E9265F-E257-43CC-B206-59D2DCE2CA8A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3367,170 +3035,65 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{193b218b-3fdd-4906-ba41-473a471b8975}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{01eefb6e-3908-4d7e-b315-c38ef15bac7a}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cf685b32-9e20-476f-9748-4d71c55d77e8}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{556d053a-fa3d-4108-89d9-47fc480c312e}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H4:S4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8461085e-c92c-4ce6-8599-42e225d9dd5e}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1fcf61c6-b595-4a3f-848b-136f35387d3b}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b1f3bb62-937f-457b-a400-b79f33f93265}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1ca3418d-fe1b-4e4b-80c1-c2840b944bbb}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H5:S5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c301ead8-517d-4dba-aa0c-dbd44f9f9f0f}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a15fc79e-c30d-4f74-b569-f015ff783ebd}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86d4fe84-4a68-4350-96a4-cfe2bf94a81a}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{59c4d1f4-20ff-4040-83eb-0e979142d43f}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H6:S6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{35331ffc-9e06-4b57-81d4-4900c6238336}">
+          <x14:cfRule type="dataBar" id="{193B218B-3FDD-4906-BA41-473A471B8975}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E4:E6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{01EEFB6E-3908-4D7E-B315-C38EF15BAC7A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F4:F6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF685B32-9E20-476F-9748-4D71C55D77E8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G4:G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{556D053A-FA3D-4108-89D9-47FC480C312E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H4:S6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8461085E-C92C-4CE6-8599-42E225D9DD5E}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3543,7 +3106,7 @@
           <xm:sqref>E7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4efb2be3-997d-4862-b39c-ab157ff82335}">
+          <x14:cfRule type="dataBar" id="{1FCF61C6-B595-4A3F-848B-136F35387D3B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3556,7 +3119,7 @@
           <xm:sqref>F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9e85005f-3b84-47d8-9411-47157e34e754}">
+          <x14:cfRule type="dataBar" id="{B1F3BB62-937F-457B-A400-B79F33F93265}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3569,7 +3132,7 @@
           <xm:sqref>G7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{453d4f72-7582-4d17-8f2d-9562a02e8f20}">
+          <x14:cfRule type="dataBar" id="{1CA3418D-FE1B-4E4B-80C1-C2840B944BBB}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3582,85 +3145,137 @@
           <xm:sqref>H7:S7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f08cfc04-2816-477e-b5ed-50beaa3101e4}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b25ebfbf-10ec-46b2-90d6-db4a7daee811}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ac549a67-8d00-4077-a697-bb4844bf65f9}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{617875d1-d7d6-40c7-98d3-d401ce4cd5de}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H10:S10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{65bf5bec-826f-487d-884e-3aad29ec1e46}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8dc3e689-181f-4837-b9a4-061d0cdc8927}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H11:S11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a114bad9-0506-40ca-949a-63da3346783d}">
+          <x14:cfRule type="dataBar" id="{C301EAD8-517D-4DBA-AA0C-DBD44F9F9F0F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A15FC79E-C30D-4F74-B569-F015FF783EBD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{86D4FE84-4A68-4350-96A4-CFE2BF94A81A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{59C4D1F4-20FF-4040-83EB-0E979142D43F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H8:S8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{35331FFC-9E06-4B57-81D4-4900C6238336}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4EFB2BE3-997D-4862-B39C-AB157FF82335}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E85005F-3B84-47D8-9411-47157E34E754}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{453D4F72-7582-4D17-8F2D-9562A02E8F20}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H9:S9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F08CFC04-2816-477E-B5ED-50BEAA3101E4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B25EBFBF-10EC-46B2-90D6-DB4A7DAEE811}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AC549A67-8D00-4077-A697-BB4844BF65F9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3673,225 +3288,277 @@
           <xm:sqref>G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d1d3c348-6b15-4e14-83d1-f8a925cc5eba}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{be0df851-ecdc-42b4-9441-349e99560f01}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ecdb2463-91a0-44d4-b4b4-f929b67cc51e}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J12:U12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fa122fc2-8639-4581-9151-888c351aa564}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b2c6af3c-f324-4966-b64a-423181876bdc}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c708f6b4-718a-47d5-b4fc-c08191d67c24}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b3af25f3-62f0-472c-8ef1-d2b3bfb94183}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H29:S29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2880dd5d-1a9b-4691-a5fa-27d70b5719f2}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E8:E9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{545923ab-40b0-441d-bfd2-c457230b5507}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E11:E12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f93d90dc-1b03-42cd-9bec-53f4c6c3279e}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E24:E28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4f950daf-5db9-4b59-ae27-9ce0e5465029}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F8:F9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8e10d9b9-ce2b-4f5a-93e6-20544f7ba76b}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F11:F12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3e9fdd3d-a9d5-450a-a6bf-3551a7e12c7c}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G8:G9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3f87565a-6b9d-4fcf-ac9a-f009b5aba637}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K13:S23 F13:H23 I13:I21 I22:J23 C3:D28 F3:S3 C2:W2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ba7640f7-3c6a-472a-a4aa-c8f685bd84cb}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E13:E23 E3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a8aaa4db-d2b4-40a5-b7c4-73547f741fa0}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H8:S9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93e9265f-e257-43cc-b206-59d2dce2ca8a}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F24:S28</xm:sqref>
+          <x14:cfRule type="dataBar" id="{617875D1-D7D6-40C7-98D3-D401CE4CD5DE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H12:S12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{65BF5BEC-826F-487D-884E-3AAD29EC1E46}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8DC3E689-181F-4837-B9A4-061D0CDC8927}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H13:S13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A114BAD9-0506-40CA-949A-63DA3346783D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D1D3C348-6B15-4E14-83D1-F8A925CC5EBA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE0DF851-ECDC-42B4-9441-349E99560F01}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ECDB2463-91A0-44D4-B4B4-F929B67CC51E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J14:U14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FA122FC2-8639-4581-9151-888C351AA564}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B2C6AF3C-F324-4966-B64A-423181876BDC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C708F6B4-718A-47D5-B4FC-C08191D67C24}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B3AF25F3-62F0-472C-8EF1-D2B3BFB94183}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H31:S31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2880DD5D-1A9B-4691-A5FA-27D70B5719F2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E10:E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{545923AB-40B0-441D-BFD2-C457230B5507}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E13:E14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F93D90DC-1B03-42CD-9BEC-53F4C6C3279E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E26:E30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4F950DAF-5DB9-4B59-AE27-9CE0E5465029}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F10:F11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8E10D9B9-CE2B-4F5A-93E6-20544F7BA76B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F13:F14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3E9FDD3D-A9D5-450A-A6BF-3551A7E12C7C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G10:G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F87565A-6B9D-4FCF-AC9A-F009B5ABA637}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K15:S25 F15:H25 I15:I23 I24:J25 C3:D30 F3:S3 C2:W2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BA7640F7-3C6A-472A-A4AA-C8F685BD84CB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E15:E25 E3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A8AAA4DB-D2B4-40A5-B7C4-73547F741FA0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10:S11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{93E9265F-E257-43CC-B206-59D2DCE2CA8A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F26:S30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
